--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_22.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_22.xlsx
@@ -508,148 +508,148 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_9</t>
+          <t>model_1_22_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9868545178302578</v>
+        <v>0.8461970481608349</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7812470554953742</v>
+        <v>0.616742926995985</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7849315161465285</v>
+        <v>0.7214070863042177</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9839377612962713</v>
+        <v>0.8421381043920185</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05471842047429056</v>
+        <v>0.3645426237142603</v>
       </c>
       <c r="G2" t="n">
-        <v>1.462801947167124</v>
+        <v>2.562841811914401</v>
       </c>
       <c r="H2" t="n">
-        <v>0.76928749635667</v>
+        <v>0.9965106985445409</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02642450614157571</v>
+        <v>0.5361699521028893</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7636611948462074</v>
+        <v>1.19372094262717</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2339196880860834</v>
+        <v>0.6037736527161982</v>
       </c>
       <c r="L2" t="n">
-        <v>1.841310858863501</v>
+        <v>0.7905661932402858</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2376036893395389</v>
+        <v>0.6132824841942537</v>
       </c>
       <c r="N2" t="n">
-        <v>135.8111097433718</v>
+        <v>36.01822359376479</v>
       </c>
       <c r="O2" t="n">
-        <v>277.1462822865881</v>
+        <v>72.98280718199061</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_8</t>
+          <t>model_1_22_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9866864334399076</v>
+        <v>0.8456550630366242</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7811557357167048</v>
+        <v>0.6140343863809727</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7847934655968953</v>
+        <v>0.721142516328064</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9848454547207683</v>
+        <v>0.8350201176928802</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05541807623644398</v>
+        <v>0.365827232864028</v>
       </c>
       <c r="G3" t="n">
-        <v>1.463412602947575</v>
+        <v>2.580953835478671</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7697812951680771</v>
+        <v>0.9974570500085943</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02493123045860873</v>
+        <v>0.5603458342741219</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7650719306361013</v>
+        <v>1.161692756501997</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2354104420718078</v>
+        <v>0.604836534002393</v>
       </c>
       <c r="L3" t="n">
-        <v>1.852068259845915</v>
+        <v>0.7898281709434882</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2391179212103312</v>
+        <v>0.6143621047982145</v>
       </c>
       <c r="N3" t="n">
-        <v>135.7856989051843</v>
+        <v>36.01118819676496</v>
       </c>
       <c r="O3" t="n">
-        <v>277.1208714484007</v>
+        <v>72.97577178499078</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_7</t>
+          <t>model_1_22_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9865078488260889</v>
+        <v>0.8456323590036616</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7810541620534659</v>
+        <v>0.6139397871601258</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7846321047383661</v>
+        <v>0.7212164668630567</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9856626219133491</v>
+        <v>0.8342704603016659</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05616143945910802</v>
+        <v>0.3658810457957442</v>
       </c>
       <c r="G4" t="n">
-        <v>1.464091826501357</v>
+        <v>2.581586420904065</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7703584736027962</v>
+        <v>0.9971925332328236</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02358688239497116</v>
+        <v>0.5628920077252451</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7663547395744303</v>
+        <v>1.157684925495007</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2369840489550046</v>
+        <v>0.6048810178834712</v>
       </c>
       <c r="L4" t="n">
-        <v>1.863497675130311</v>
+        <v>0.7897972548134967</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2407163108289085</v>
+        <v>0.6144072892559521</v>
       </c>
       <c r="N4" t="n">
-        <v>135.7590497763974</v>
+        <v>36.01089401979097</v>
       </c>
       <c r="O4" t="n">
-        <v>277.0942223196138</v>
+        <v>72.9754776080168</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9863197193900604</v>
+        <v>0.8456335600510444</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7809460623317782</v>
+        <v>0.6137794071980587</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7844789347627915</v>
+        <v>0.7223423098859511</v>
       </c>
       <c r="E5" t="n">
-        <v>0.986427271095132</v>
+        <v>0.8278116418152524</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05694453325903649</v>
+        <v>0.365878199082083</v>
       </c>
       <c r="G5" t="n">
-        <v>1.464814689838036</v>
+        <v>2.582658882448889</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7709063537241208</v>
+        <v>0.9931654580200597</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02232893340212727</v>
+        <v>0.5848290583679236</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7677210867376365</v>
+        <v>1.103199704408794</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2386305371469387</v>
+        <v>0.6048786647602005</v>
       </c>
       <c r="L5" t="n">
-        <v>1.875537959036137</v>
+        <v>0.7897988902822732</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2423887295639812</v>
+        <v>0.6144048990733421</v>
       </c>
       <c r="N5" t="n">
-        <v>135.7313551712722</v>
+        <v>36.01090958072133</v>
       </c>
       <c r="O5" t="n">
-        <v>277.0665277144886</v>
+        <v>72.97549316894715</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9861208536077529</v>
+        <v>0.8455894870705706</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7808263094172555</v>
+        <v>0.6135750663293853</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7843367172103493</v>
+        <v>0.7221363805851062</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9871302001410039</v>
+        <v>0.8283497305067281</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05777231738697788</v>
+        <v>0.3659826605358114</v>
       </c>
       <c r="G6" t="n">
-        <v>1.465615478128861</v>
+        <v>2.584025310778611</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7714150576629593</v>
+        <v>0.9939020551887147</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02117252219243545</v>
+        <v>0.5830014673154755</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7692026348663645</v>
+        <v>1.108623649509592</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2403587264631303</v>
+        <v>0.6049650076953306</v>
       </c>
       <c r="L6" t="n">
-        <v>1.888265369103813</v>
+        <v>0.7897388760109897</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2441441361343473</v>
+        <v>0.6144926018233893</v>
       </c>
       <c r="N6" t="n">
-        <v>135.7024911119455</v>
+        <v>36.01033864457649</v>
       </c>
       <c r="O6" t="n">
-        <v>277.037663655162</v>
+        <v>72.97492223280231</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9859128111357317</v>
+        <v>0.8455544925185192</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7806880098760571</v>
+        <v>0.6134029209707834</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7841974311731515</v>
+        <v>0.7219487045043425</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9877650798922288</v>
+        <v>0.8289161071061703</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05863829973084123</v>
+        <v>0.3660656043653542</v>
       </c>
       <c r="G7" t="n">
-        <v>1.466540287797665</v>
+        <v>2.585176447584238</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7719132757417471</v>
+        <v>0.9945733616475223</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02012806106874973</v>
+        <v>0.58107779781293</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7725454775776143</v>
+        <v>1.113734187359753</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2421534631815974</v>
+        <v>0.6050335563961342</v>
       </c>
       <c r="L7" t="n">
-        <v>1.901580087313171</v>
+        <v>0.7896912238550049</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2459671381620517</v>
+        <v>0.6145622300977071</v>
       </c>
       <c r="N7" t="n">
-        <v>135.6727344337287</v>
+        <v>36.0098854294874</v>
       </c>
       <c r="O7" t="n">
-        <v>277.007906976945</v>
+        <v>72.97446901771322</v>
       </c>
     </row>
     <row r="8">
@@ -806,193 +806,193 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9856943431862119</v>
+        <v>0.8455455095627026</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7805362187143415</v>
+        <v>0.6133281914708157</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7840564034322073</v>
+        <v>0.7218078435722139</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9883285712462516</v>
+        <v>0.8295376776159007</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05954767840312009</v>
+        <v>0.3660868957010726</v>
       </c>
       <c r="G8" t="n">
-        <v>1.467555315994992</v>
+        <v>2.58567616409462</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7724177237938463</v>
+        <v>0.9950772130341599</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01920104329621214</v>
+        <v>0.5789666649828878</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7769522781605448</v>
+        <v>1.118362736988836</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2440239299804839</v>
+        <v>0.6050511513096001</v>
       </c>
       <c r="L8" t="n">
-        <v>1.915562036082441</v>
+        <v>0.7896789917449567</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2478670629432399</v>
+        <v>0.6145801021134715</v>
       </c>
       <c r="N8" t="n">
-        <v>135.6419559392293</v>
+        <v>36.00976910762428</v>
       </c>
       <c r="O8" t="n">
-        <v>276.9771284824458</v>
+        <v>72.9743526958501</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_2</t>
+          <t>model_1_22_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.985464059320073</v>
+        <v>0.8451490051564957</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7803788447875978</v>
+        <v>0.6126068178692531</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7839063938777648</v>
+        <v>0.7221596917625919</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9888109974828947</v>
+        <v>0.8228741172047197</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06050624114377292</v>
+        <v>0.3670266875244705</v>
       </c>
       <c r="G9" t="n">
-        <v>1.468607676167768</v>
+        <v>2.590499992689889</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7729542992720335</v>
+        <v>0.9938186724585083</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01840738835880457</v>
+        <v>0.6015991112279901</v>
       </c>
       <c r="J9" t="n">
-        <v>0.781380417175922</v>
+        <v>1.077971793808911</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2459801641266485</v>
+        <v>0.6058272753223236</v>
       </c>
       <c r="L9" t="n">
-        <v>1.93030020351533</v>
+        <v>0.7891390708513984</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2498541058216898</v>
+        <v>0.6153684493035561</v>
       </c>
       <c r="N9" t="n">
-        <v>135.6100175197294</v>
+        <v>36.00464143104214</v>
       </c>
       <c r="O9" t="n">
-        <v>276.9451900629458</v>
+        <v>72.96922501926795</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_1</t>
+          <t>model_1_22_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9852211163976583</v>
+        <v>0.8436671301766356</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7802028334837381</v>
+        <v>0.6113820140954438</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7837719967943527</v>
+        <v>0.7217345640341981</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9892078021857468</v>
+        <v>0.8145630704604325</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06151749754413038</v>
+        <v>0.370539016687955</v>
       </c>
       <c r="G10" t="n">
-        <v>1.469784664567135</v>
+        <v>2.598690261165054</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7734350298466079</v>
+        <v>0.995339329692651</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01775459216389511</v>
+        <v>0.6298271615605116</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7859837637517475</v>
+        <v>1.106937740437953</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2480272112977332</v>
+        <v>0.6087191607695251</v>
       </c>
       <c r="L10" t="n">
-        <v>1.945848550549869</v>
+        <v>0.7871211985383975</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2519333919394227</v>
+        <v>0.6183058790557262</v>
       </c>
       <c r="N10" t="n">
-        <v>135.5768672634462</v>
+        <v>35.98559306318181</v>
       </c>
       <c r="O10" t="n">
-        <v>276.9120398066626</v>
+        <v>72.95017665140763</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_0</t>
+          <t>model_1_22_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.984970744771961</v>
+        <v>0.8427260181583356</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7800110547583011</v>
+        <v>0.610352841856735</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7836370106311042</v>
+        <v>0.7213533378399781</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9895527628532795</v>
+        <v>0.8076141043748575</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0625596761202247</v>
+        <v>0.3727696334625855</v>
       </c>
       <c r="G11" t="n">
-        <v>1.471067089787192</v>
+        <v>2.605572340664203</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7739178675256001</v>
+        <v>0.9967029536846109</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01718708626101596</v>
+        <v>0.6534289737579255</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7905921581916361</v>
+        <v>1.095557001471781</v>
       </c>
       <c r="K11" t="n">
-        <v>0.250119323764128</v>
+        <v>0.6105486331674043</v>
       </c>
       <c r="L11" t="n">
-        <v>1.961872334594496</v>
+        <v>0.7858396843007123</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2540584530858181</v>
+        <v>0.6201641638150703</v>
       </c>
       <c r="N11" t="n">
-        <v>135.5432687197297</v>
+        <v>35.97358930958517</v>
       </c>
       <c r="O11" t="n">
-        <v>276.8784412629461</v>
+        <v>72.938172897811</v>
       </c>
     </row>
   </sheetData>
